--- a/data/BD_Financiero.xlsx
+++ b/data/BD_Financiero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e64e3084cf54c9d/Documentos/Semestre 7/Pensiones/Proyecto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{136C1E66-F2E0-4AF5-9222-911B98DB8E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{553A8170-38B4-4D72-8E3F-4765415D6AC6}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{136C1E66-F2E0-4AF5-9222-911B98DB8E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB95453B-894C-4249-BD8F-409D332AFC18}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="1410" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EEFF" sheetId="27" r:id="rId1"/>
@@ -959,7 +959,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -1087,6 +1087,9 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="20% - Énfasis1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1806,8 +1809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5700BF4-7352-4296-8678-FB0C4BD2CC1B}">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2561,9 +2564,9 @@
   </sheetPr>
   <dimension ref="A2:H124"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B124" sqref="B4:B124"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L111" sqref="L111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5565,7 +5568,7 @@
         <v>330018587345.00006</v>
       </c>
       <c r="H105" s="5">
-        <f t="shared" si="12"/>
+        <f>+C105-E105-F105</f>
         <v>327426709918.58008</v>
       </c>
     </row>
@@ -5619,7 +5622,7 @@
         <v>27261262893</v>
       </c>
       <c r="G107" s="5">
-        <f t="shared" si="11"/>
+        <f>+C107-F107</f>
         <v>338873345236.20007</v>
       </c>
       <c r="H107" s="5">
@@ -6105,7 +6108,7 @@
         <v>-2461838815.5</v>
       </c>
       <c r="E124" s="23">
-        <f t="shared" ref="E124" si="62">+D124+E123</f>
+        <f>+D124+E123</f>
         <v>1989350214.7200022</v>
       </c>
       <c r="F124" s="33">
@@ -6131,13 +6134,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N124"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C115" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1:I1048576"/>
+      <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6530,18 +6533,9 @@
       <c r="F16" s="9">
         <v>14888320.235545952</v>
       </c>
-      <c r="G16" s="12" t="e">
-        <f>+#REF!+SUM(E5:E16)-SUM(F5:F16)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H16" s="12" t="e">
-        <f>+#REF!-G16</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I16" s="13" t="e">
-        <f>2*H16/(#REF!+#REF!-H16)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
     </row>
@@ -6564,18 +6558,9 @@
       <c r="F17" s="9">
         <v>14772561.932283005</v>
       </c>
-      <c r="G17" s="12" t="e">
-        <f>+#REF!+SUM(E6:E17)-SUM(F6:F17)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H17" s="12" t="e">
-        <f>+#REF!-G17</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I17" s="13" t="e">
-        <f>2*H17/(#REF!+#REF!-H17)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="13"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
@@ -6598,18 +6583,9 @@
       <c r="F18" s="9">
         <v>15743387.196880361</v>
       </c>
-      <c r="G18" s="12" t="e">
-        <f>+#REF!+SUM(E7:E18)-SUM(F7:F18)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H18" s="12" t="e">
-        <f>+#REF!-G18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I18" s="13" t="e">
-        <f>2*H18/(#REF!+#REF!-H18)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="13"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
@@ -6632,18 +6608,9 @@
       <c r="F19" s="9">
         <v>15366816.100328051</v>
       </c>
-      <c r="G19" s="12" t="e">
-        <f>+#REF!+SUM(E8:E19)-SUM(F8:F19)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H19" s="12" t="e">
-        <f>+#REF!-G19</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I19" s="13" t="e">
-        <f>2*H19/(#REF!+#REF!-H19)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="13"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
@@ -6666,18 +6633,9 @@
       <c r="F20" s="9">
         <v>14629690.957749106</v>
       </c>
-      <c r="G20" s="12" t="e">
-        <f>+#REF!+SUM(E9:E20)-SUM(F9:F20)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H20" s="12" t="e">
-        <f>+#REF!-G20</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I20" s="13" t="e">
-        <f>2*H20/(#REF!+#REF!-H20)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="13"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
     </row>
@@ -6700,18 +6658,9 @@
       <c r="F21" s="9">
         <v>15916178.628819464</v>
       </c>
-      <c r="G21" s="12" t="e">
-        <f>+#REF!+SUM(E10:E21)-SUM(F10:F21)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H21" s="12" t="e">
-        <f>+#REF!-G21</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I21" s="13" t="e">
-        <f>2*H21/(#REF!+#REF!-H21)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
@@ -6734,18 +6683,9 @@
       <c r="F22" s="9">
         <v>15127910.672312472</v>
       </c>
-      <c r="G22" s="12" t="e">
-        <f>+#REF!+SUM(E11:E22)-SUM(F11:F22)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H22" s="12" t="e">
-        <f>+#REF!-G22</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I22" s="13" t="e">
-        <f>2*H22/(#REF!+#REF!-H22)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="13"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
     </row>
@@ -6768,18 +6708,9 @@
       <c r="F23" s="9">
         <v>15343819.813072462</v>
       </c>
-      <c r="G23" s="12" t="e">
-        <f>+#REF!+SUM(E12:E23)-SUM(F12:F23)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H23" s="12" t="e">
-        <f>+#REF!-G23</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I23" s="13" t="e">
-        <f>2*H23/(#REF!+#REF!-H23)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="13"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
@@ -6802,18 +6733,9 @@
       <c r="F24" s="9">
         <v>16653769.975391185</v>
       </c>
-      <c r="G24" s="12" t="e">
-        <f>+#REF!+SUM(E13:E24)-SUM(F13:F24)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H24" s="12" t="e">
-        <f>+#REF!-G24</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I24" s="13" t="e">
-        <f>2*H24/(#REF!+#REF!-H24)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="13"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
     </row>
@@ -6836,18 +6758,9 @@
       <c r="F25" s="9">
         <v>18869835.64005319</v>
       </c>
-      <c r="G25" s="12" t="e">
-        <f>+#REF!+SUM(E14:E25)-SUM(F14:F25)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H25" s="12" t="e">
-        <f>+#REF!-G25</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I25" s="13" t="e">
-        <f>2*H25/(#REF!+#REF!-H25)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="13"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
     </row>
@@ -6870,18 +6783,9 @@
       <c r="F26" s="9">
         <v>18038716.621882427</v>
       </c>
-      <c r="G26" s="12" t="e">
-        <f>+#REF!+SUM(E15:E26)-SUM(F15:F26)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H26" s="12" t="e">
-        <f>+#REF!-G26</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I26" s="13" t="e">
-        <f>2*H26/(#REF!+#REF!-H26)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="13"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
     </row>
@@ -6904,18 +6808,9 @@
       <c r="F27" s="9">
         <v>19189706.033726763</v>
       </c>
-      <c r="G27" s="12" t="e">
-        <f>+#REF!+SUM(E16:E27)-SUM(F16:F27)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H27" s="12" t="e">
-        <f>+#REF!-G27</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I27" s="13" t="e">
-        <f>2*H27/(#REF!+#REF!-H27)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="13"/>
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
     </row>
@@ -6938,18 +6833,9 @@
       <c r="F28" s="9">
         <v>18107251.437546521</v>
       </c>
-      <c r="G28" s="12" t="e">
-        <f>+#REF!+SUM(E17:E28)-SUM(F17:F28)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H28" s="12" t="e">
-        <f>+#REF!-G28</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I28" s="13" t="e">
-        <f>2*H28/(#REF!+#REF!-H28)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="13"/>
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
     </row>
@@ -6973,18 +6859,9 @@
       <c r="F29" s="9">
         <v>21376411.200344685</v>
       </c>
-      <c r="G29" s="12" t="e">
-        <f>+#REF!+SUM(E18:E29)-SUM(F18:F29)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H29" s="12" t="e">
-        <f>+#REF!-G29</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I29" s="13" t="e">
-        <f>2*H29/(#REF!+#REF!-H29)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="13"/>
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
     </row>
@@ -7008,18 +6885,9 @@
       <c r="F30" s="9">
         <v>20660515.843834322</v>
       </c>
-      <c r="G30" s="12" t="e">
-        <f>+#REF!+SUM(E19:E30)-SUM(F19:F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H30" s="12" t="e">
-        <f>+#REF!-G30</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I30" s="13" t="e">
-        <f>2*H30/(#REF!+#REF!-H30)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="13"/>
       <c r="K30" s="17"/>
       <c r="L30" s="17"/>
     </row>
@@ -7043,18 +6911,9 @@
       <c r="F31" s="9">
         <v>21742989.484229021</v>
       </c>
-      <c r="G31" s="12" t="e">
-        <f>+#REF!+SUM(E20:E31)-SUM(F20:F31)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H31" s="12" t="e">
-        <f>+#REF!-G31</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I31" s="13" t="e">
-        <f>2*H31/(#REF!+#REF!-H31)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="13"/>
       <c r="K31" s="17"/>
       <c r="L31" s="17"/>
     </row>
@@ -7077,18 +6936,9 @@
       <c r="F32" s="9">
         <v>21195170.096891046</v>
       </c>
-      <c r="G32" s="12" t="e">
-        <f>+#REF!+SUM(E21:E32)-SUM(F21:F32)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H32" s="12" t="e">
-        <f>+#REF!-G32</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I32" s="13" t="e">
-        <f>2*H32/(#REF!+#REF!-H32)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="13"/>
       <c r="K32" s="17"/>
       <c r="L32" s="17"/>
     </row>
@@ -7111,18 +6961,9 @@
       <c r="F33" s="9">
         <v>21710304.358056642</v>
       </c>
-      <c r="G33" s="12" t="e">
-        <f>+#REF!+SUM(E22:E33)-SUM(F22:F33)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H33" s="12" t="e">
-        <f>+#REF!-G33</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I33" s="13" t="e">
-        <f>2*H33/(#REF!+#REF!-H33)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="13"/>
       <c r="K33" s="17"/>
       <c r="L33" s="17"/>
     </row>
@@ -7145,18 +6986,9 @@
       <c r="F34" s="9">
         <v>22383889.596204612</v>
       </c>
-      <c r="G34" s="12" t="e">
-        <f>+#REF!+SUM(E23:E34)-SUM(F23:F34)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H34" s="12" t="e">
-        <f>+#REF!-G34</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I34" s="13" t="e">
-        <f>2*H34/(#REF!+#REF!-H34)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="13"/>
       <c r="K34" s="17"/>
       <c r="L34" s="17"/>
     </row>
@@ -7179,18 +7011,9 @@
       <c r="F35" s="9">
         <v>22050688.679705951</v>
       </c>
-      <c r="G35" s="12" t="e">
-        <f>+#REF!+SUM(E24:E35)-SUM(F24:F35)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H35" s="12" t="e">
-        <f>+#REF!-G35</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I35" s="13" t="e">
-        <f>2*H35/(#REF!+#REF!-H35)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="13"/>
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
     </row>
@@ -7213,18 +7036,9 @@
       <c r="F36" s="9">
         <v>23159213.685902391</v>
       </c>
-      <c r="G36" s="12" t="e">
-        <f>+#REF!+SUM(E25:E36)-SUM(F25:F36)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H36" s="12" t="e">
-        <f>+#REF!-G36</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I36" s="13" t="e">
-        <f>2*H36/(#REF!+#REF!-H36)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="13"/>
       <c r="K36" s="17"/>
       <c r="L36" s="17"/>
     </row>
@@ -7247,18 +7061,9 @@
       <c r="F37" s="9">
         <v>22703814.813002709</v>
       </c>
-      <c r="G37" s="12" t="e">
-        <f>+#REF!+SUM(E26:E37)-SUM(F26:F37)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H37" s="12" t="e">
-        <f>+#REF!-G37</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I37" s="13" t="e">
-        <f>2*H37/(#REF!+#REF!-H37)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="13"/>
       <c r="K37" s="17"/>
       <c r="L37" s="17"/>
     </row>
@@ -7281,18 +7086,9 @@
       <c r="F38" s="9">
         <v>24870656.366272312</v>
       </c>
-      <c r="G38" s="12" t="e">
-        <f>+#REF!+SUM(E27:E38)-SUM(F27:F38)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H38" s="12" t="e">
-        <f>+#REF!-G38</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I38" s="13" t="e">
-        <f>2*H38/(#REF!+#REF!-H38)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="13"/>
       <c r="K38" s="17"/>
       <c r="L38" s="17"/>
     </row>
@@ -7315,18 +7111,9 @@
       <c r="F39" s="9">
         <v>23891214.209900852</v>
       </c>
-      <c r="G39" s="12" t="e">
-        <f>+#REF!+SUM(E28:E39)-SUM(F28:F39)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H39" s="12" t="e">
-        <f>+#REF!-G39</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I39" s="13" t="e">
-        <f>2*H39/(#REF!+#REF!-H39)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="13"/>
       <c r="K39" s="17"/>
       <c r="L39" s="17"/>
     </row>
@@ -7349,18 +7136,9 @@
       <c r="F40" s="9">
         <v>23536171.310946014</v>
       </c>
-      <c r="G40" s="12" t="e">
-        <f>+#REF!+SUM(E29:E40)-SUM(F29:F40)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H40" s="12" t="e">
-        <f>+#REF!-G40</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I40" s="13" t="e">
-        <f>2*H40/(#REF!+#REF!-H40)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="13"/>
       <c r="K40" s="17"/>
       <c r="L40" s="17"/>
     </row>
@@ -7383,18 +7161,9 @@
       <c r="F41" s="9">
         <v>25140349.452414192</v>
       </c>
-      <c r="G41" s="12" t="e">
-        <f>+#REF!+SUM(E30:E41)-SUM(F30:F41)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H41" s="12" t="e">
-        <f>+#REF!-G41</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I41" s="13" t="e">
-        <f>2*H41/(#REF!+#REF!-H41)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="13"/>
       <c r="K41" s="17"/>
       <c r="L41" s="17"/>
     </row>
@@ -7417,18 +7186,9 @@
       <c r="F42" s="9">
         <v>26596062.731218047</v>
       </c>
-      <c r="G42" s="12" t="e">
-        <f>+#REF!+SUM(E31:E42)-SUM(F31:F42)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H42" s="12" t="e">
-        <f>+#REF!-G42</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I42" s="13" t="e">
-        <f>2*H42/(#REF!+#REF!-H42)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="13"/>
       <c r="K42" s="17"/>
       <c r="L42" s="17"/>
     </row>
@@ -9481,6 +9241,9 @@
       <c r="I124" s="27"/>
       <c r="K124" s="17"/>
       <c r="L124" s="17"/>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E125" s="55"/>
     </row>
   </sheetData>
   <autoFilter ref="B3:I92" xr:uid="{5074447C-5EBD-42F1-B634-75C32ECA84B1}"/>
